--- a/biology/Zoologie/Elaphe_anomala/Elaphe_anomala.xlsx
+++ b/biology/Zoologie/Elaphe_anomala/Elaphe_anomala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elaphe anomala est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elaphe anomala est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la Mongolie-intérieure en Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la Mongolie-intérieure en Chine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Boulenger indique que le spécimen en sa possession mesure 170 cm dont environ 25 cm pour la queue. Son dos est brun foncé et présente une grande tache noire au niveau de la nuque. Ses yeux sont barrés de noir. Sa face ventrale est blanche avec des taches grisâtres dans sa partie postérieure.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Boulenger indique que le spécimen en sa possession mesure 170 cm dont environ 25 cm pour la queue. Son dos est brun foncé et présente une grande tache noire au niveau de la nuque. Ses yeux sont barrés de noir. Sa face ventrale est blanche avec des taches grisâtres dans sa partie postérieure.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1916 : Description of a new snake of the genus Coluber from northern China. Annals and Magazine of Natural History, ser. 8, vol. 17, p. 243-244 (texte intégral).
 Pope, 1935 : The Reptiles of China. Turtes, Crocodilians, Snakes, Lizards. American Museum National History, vol. 10, p. 1-604 (texte intégral).
